--- a/Mifos Automation Excels/Client/4259-MS-EI-DB-DL-REC-CTRFD-RNI-FEE+INTEREST-FFC-SAR-FFROP-DAILY-FIFR-1-MD-TR-1-MORE-PER-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/4259-MS-EI-DB-DL-REC-CTRFD-RNI-FEE+INTEREST-FFC-SAR-FFROP-DAILY-FIFR-1-MD-TR-1-MORE-PER-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="4"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -211,7 +216,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -327,6 +332,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -374,7 +382,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,9 +415,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -442,6 +467,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -781,10 +823,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -801,12 +843,13 @@
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -846,17 +889,18 @@
       <c r="M1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="8">
@@ -881,9 +925,10 @@
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O2" s="3"/>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -921,14 +966,15 @@
       <c r="M3" s="3">
         <v>0</v>
       </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N3" s="3"/>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -964,14 +1010,15 @@
       <c r="M4" s="3">
         <v>0</v>
       </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
+      <c r="N4" s="3"/>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1007,14 +1054,15 @@
       <c r="M5" s="3">
         <v>0</v>
       </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
+      <c r="N5" s="3"/>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1050,14 +1098,15 @@
       <c r="M6" s="3">
         <v>0</v>
       </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
+      <c r="N6" s="3"/>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1093,14 +1142,15 @@
       <c r="M7" s="3">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1136,14 +1186,15 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="N8" s="3"/>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1179,14 +1230,15 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1222,14 +1274,15 @@
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="N10" s="3"/>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1265,14 +1318,15 @@
       <c r="M11" s="3">
         <v>0</v>
       </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1308,14 +1362,15 @@
       <c r="M12" s="3">
         <v>0</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="N12" s="3"/>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1351,14 +1406,15 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
+      <c r="N13" s="3"/>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
         <v>887.72</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1394,10 +1450,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="N14" s="3"/>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>667.66</v>
       </c>
     </row>
@@ -1640,7 +1697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/4259-MS-EI-DB-DL-REC-CTRFD-RNI-FEE+INTEREST-FFC-SAR-FFROP-DAILY-FIFR-1-MD-TR-1-MORE-PER-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/4259-MS-EI-DB-DL-REC-CTRFD-RNI-FEE+INTEREST-FFC-SAR-FFROP-DAILY-FIFR-1-MD-TR-1-MORE-PER-Makerepayment1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="61">
   <si>
     <t>makerepayment</t>
   </si>
@@ -67,9 +62,6 @@
   </si>
   <si>
     <t>Paid Date</t>
-  </si>
-  <si>
-    <t>Heading</t>
   </si>
   <si>
     <t>Principal Due</t>
@@ -216,20 +208,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
@@ -309,11 +300,8 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -322,6 +310,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,7 +373,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -415,26 +406,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -467,23 +441,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -682,17 +639,17 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="12">
+        <v>30</v>
+      </c>
+      <c r="B2" s="11">
         <v>42036</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="15">
+        <v>50</v>
+      </c>
+      <c r="B3" s="14">
         <v>1200</v>
       </c>
     </row>
@@ -826,7 +783,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -842,61 +799,56 @@
     <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
-    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="9" t="s">
+      <c r="O1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="9" t="s">
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -926,6 +878,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -941,7 +894,7 @@
       <c r="D3" s="8">
         <v>42036</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="3">
         <v>998.08</v>
       </c>
@@ -957,19 +910,20 @@
       <c r="J3" s="3">
         <v>0</v>
       </c>
-      <c r="K3" s="7">
-        <v>1200</v>
+      <c r="K3" s="3">
+        <v>987.72</v>
       </c>
       <c r="L3" s="7">
         <v>1200</v>
       </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="3">
+        <v>212.28</v>
+      </c>
       <c r="O3" s="3">
         <v>0</v>
       </c>
+      <c r="P3" s="3"/>
       <c r="Q3" s="3">
         <v>0</v>
       </c>
@@ -1007,13 +961,14 @@
       <c r="L4" s="3">
         <v>0</v>
       </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
       <c r="O4" s="3">
         <v>0</v>
       </c>
+      <c r="P4" s="3"/>
       <c r="Q4" s="3">
         <v>887.72</v>
       </c>
@@ -1051,13 +1006,14 @@
       <c r="L5" s="3">
         <v>0</v>
       </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
       <c r="O5" s="3">
         <v>0</v>
       </c>
+      <c r="P5" s="3"/>
       <c r="Q5" s="3">
         <v>887.72</v>
       </c>
@@ -1095,13 +1051,14 @@
       <c r="L6" s="3">
         <v>0</v>
       </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
       <c r="O6" s="3">
         <v>0</v>
       </c>
+      <c r="P6" s="3"/>
       <c r="Q6" s="3">
         <v>887.72</v>
       </c>
@@ -1139,13 +1096,14 @@
       <c r="L7" s="3">
         <v>0</v>
       </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
       <c r="O7" s="3">
         <v>0</v>
       </c>
+      <c r="P7" s="3"/>
       <c r="Q7" s="3">
         <v>887.72</v>
       </c>
@@ -1183,13 +1141,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
+      <c r="P8" s="3"/>
       <c r="Q8" s="3">
         <v>887.72</v>
       </c>
@@ -1227,13 +1186,14 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
+      <c r="P9" s="3"/>
       <c r="Q9" s="3">
         <v>887.72</v>
       </c>
@@ -1271,13 +1231,14 @@
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
+      <c r="P10" s="3"/>
       <c r="Q10" s="3">
         <v>887.72</v>
       </c>
@@ -1315,13 +1276,14 @@
       <c r="L11" s="3">
         <v>0</v>
       </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
       <c r="O11" s="3">
         <v>0</v>
       </c>
+      <c r="P11" s="3"/>
       <c r="Q11" s="3">
         <v>887.72</v>
       </c>
@@ -1359,13 +1321,14 @@
       <c r="L12" s="3">
         <v>0</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
       <c r="O12" s="3">
         <v>0</v>
       </c>
+      <c r="P12" s="3"/>
       <c r="Q12" s="3">
         <v>887.72</v>
       </c>
@@ -1403,13 +1366,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
       <c r="O13" s="3">
         <v>0</v>
       </c>
+      <c r="P13" s="3"/>
       <c r="Q13" s="3">
         <v>887.72</v>
       </c>
@@ -1447,13 +1411,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
+      <c r="P14" s="3"/>
       <c r="Q14" s="3">
         <v>667.66</v>
       </c>
@@ -1486,36 +1451,36 @@
     <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1523,13 +1488,13 @@
         <v>417</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="8">
         <v>42095</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3">
         <v>92.59</v>
@@ -1549,21 +1514,21 @@
       <c r="J2" s="3">
         <v>0</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>416</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="8">
         <v>42064</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3">
         <v>82.87</v>
@@ -1583,15 +1548,15 @@
       <c r="J3" s="3">
         <v>0</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>415</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="8">
         <v>42036</v>
@@ -1617,21 +1582,21 @@
       <c r="J4" s="6">
         <v>9001.92</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>412</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="8">
         <v>42036</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="3">
         <v>201.92</v>
@@ -1651,15 +1616,15 @@
       <c r="J5" s="3">
         <v>0</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>411</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="8">
         <v>42005</v>
@@ -1714,32 +1679,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1747,25 +1712,25 @@
         <v>13</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="14">
+        <v>29</v>
+      </c>
+      <c r="C2" s="13">
         <v>42005</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" t="s">
         <v>42</v>
-      </c>
-      <c r="H2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1773,25 +1738,25 @@
         <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="14">
+        <v>29</v>
+      </c>
+      <c r="C3" s="13">
         <v>42005</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="G3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1820,32 +1785,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1853,25 +1818,25 @@
         <v>691</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="8">
         <v>42036</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1879,25 +1844,25 @@
         <v>692</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="8">
         <v>42036</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1905,25 +1870,25 @@
         <v>693</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="8">
         <v>42036</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1931,25 +1896,25 @@
         <v>694</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="8">
         <v>42036</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1979,32 +1944,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2012,25 +1977,25 @@
         <v>679</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="8">
         <v>42036</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2038,25 +2003,25 @@
         <v>680</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="8">
         <v>42036</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="I3" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2064,25 +2029,25 @@
         <v>681</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="8">
         <v>42036</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2090,25 +2055,25 @@
         <v>682</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="8">
         <v>42036</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2116,25 +2081,25 @@
         <v>695</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="8">
         <v>42064</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2142,25 +2107,25 @@
         <v>696</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="8">
         <v>42064</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="I8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2168,25 +2133,25 @@
         <v>697</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="8">
         <v>42095</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="G10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2194,25 +2159,25 @@
         <v>698</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="8">
         <v>42095</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="I11" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
